--- a/biology/Botanique/Baccharis/Baccharis.xlsx
+++ b/biology/Botanique/Baccharis/Baccharis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baccharis est un genre de plante à fleurs de la famille des Asteraceae.
 Ce sont des plantes buissonnantes.
-Certaines espèces de ce genre, notamment Baccharis halimifolia, sont considérées comme des plantes envahissantes[1], remplaçables par du buplèvre par exemple.
+Certaines espèces de ce genre, notamment Baccharis halimifolia, sont considérées comme des plantes envahissantes, remplaçables par du buplèvre par exemple.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'étymologie de Baccharis est douteuse. Elle provient peut-être du grec Βάκχος, « extatique » (nom à l'origine du dieu Bacchus) en référence au parfum épicé de ses racines[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de Baccharis est douteuse. Elle provient peut-être du grec Βάκχος, « extatique » (nom à l'origine du dieu Bacchus) en référence au parfum épicé de ses racines.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (12 décembre 2020)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (12 décembre 2020) :
 Baccharis acutata (Alain) Borhidi
 Baccharis alaternoides Kunth
 Baccharis albida Hook. &amp; Arn.
@@ -1019,7 +1035,9 @@
           <t>Utilisation ornementale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Divers Baccharis, notamment des hybrides, sont utilisés comme arbustes d'ornement.
 </t>
